--- a/mitochondria distance/010725_mito_OA/1K new settings_analysis_by_image.xlsx
+++ b/mitochondria distance/010725_mito_OA/1K new settings_analysis_by_image.xlsx
@@ -461,9 +461,7 @@
           <t>1K_mitotracker_Lipidtox_01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0.3528071265796561</v>
       </c>
@@ -477,14 +475,12 @@
           <t>1K_mitotracker_Lipidtox_02</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0.1129081947011707</v>
+        <v>0.1178077788492446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04887703107573206</v>
+        <v>0.04859012544296367</v>
       </c>
     </row>
     <row r="4">
@@ -493,14 +489,12 @@
           <t>1K_mitotracker_Lipidtox_03</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.245276615001697</v>
+        <v>0.2470936858901299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08993110458549808</v>
+        <v>0.08976635382317297</v>
       </c>
     </row>
     <row r="5">
@@ -509,14 +503,12 @@
           <t>1K_mitotracker_Lipidtox_04</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.2177403369672944</v>
+        <v>0.2217957782042218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1137014744920756</v>
+        <v>0.1131656030965582</v>
       </c>
     </row>
     <row r="6">
@@ -525,14 +517,12 @@
           <t>1K_mitotracker_Lipidtox_05</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.1534372785258682</v>
+        <v>0.1611862513959548</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07013380345357563</v>
+        <v>0.06949452419878614</v>
       </c>
     </row>
     <row r="7">
@@ -541,14 +531,12 @@
           <t>1K_mitotracker_Lipidtox_06</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.1699610661874813</v>
+        <v>0.1670048384579366</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03707732048866704</v>
+        <v>0.03813903164728158</v>
       </c>
     </row>
     <row r="8">
@@ -557,14 +545,12 @@
           <t>1K_mitotracker_Lipidtox_07</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.07964444444444445</v>
+        <v>0.08083724287260917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02882573317106927</v>
+        <v>0.02876875446534889</v>
       </c>
     </row>
     <row r="9">
@@ -573,14 +559,12 @@
           <t>1K_mitotracker_Lipidtox_08</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.1284595300261097</v>
+        <v>0.1382022471910112</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07126602333285323</v>
+        <v>0.07098995695839311</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +577,10 @@
         <v>0.1537730870712401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1225429091955125</v>
+        <v>0.1479131886477462</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05430922721379854</v>
+        <v>0.05536669638876505</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +593,10 @@
         <v>0.1006942148760331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1164179104477612</v>
+        <v>0.04477077363896848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05402365006278777</v>
+        <v>0.06354383813611282</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +609,10 @@
         <v>0.1016553868666545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1098882347922532</v>
+        <v>0.2380170715692712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08180826566476791</v>
+        <v>0.08364688856729378</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +625,10 @@
         <v>0.08328611898016997</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06244440491015833</v>
+        <v>0.1120144534778681</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07728911319394377</v>
+        <v>0.07709174439649172</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +641,10 @@
         <v>0.07034665040154518</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05412443693693694</v>
+        <v>0.03844667697063369</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02583681079641303</v>
+        <v>0.02626382306477093</v>
       </c>
     </row>
     <row r="15">
@@ -672,11 +656,9 @@
       <c r="B15" t="n">
         <v>0.06349339133344487</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.05809089180452558</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0.1086038124678001</v>
+        <v>0.1102797167679405</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +671,10 @@
         <v>0.0847457627118644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07703167198625092</v>
+        <v>0.0735367683841921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02281074160180599</v>
+        <v>0.02323376796168175</v>
       </c>
     </row>
     <row r="17">
@@ -704,11 +686,9 @@
       <c r="B17" t="n">
         <v>0.0246901189341095</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.02124678963343451</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>0.01034574661400916</v>
+        <v>0.01014881793350287</v>
       </c>
     </row>
   </sheetData>
